--- a/transit lab/contactless fare payment/230117_SampleSizeDraft.xlsx
+++ b/transit lab/contactless fare payment/230117_SampleSizeDraft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdebruin/Desktop/transit lab/contactless fare payment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdebruin/Desktop/transit-lab/transit lab/contactless fare payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5E92B-8705-D645-A19E-A0739AB97F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349AC4E8-4833-534E-90D4-499A569A21BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="500" windowWidth="22380" windowHeight="19040" xr2:uid="{FE0A00CB-D587-4C8F-83D5-26CC1D7B57D7}"/>
+    <workbookView xWindow="14440" yWindow="1360" windowWidth="22380" windowHeight="19040" xr2:uid="{FE0A00CB-D587-4C8F-83D5-26CC1D7B57D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <t>originally 8000, when asked, estimated closer to 1400 (just a guess)</t>
   </si>
   <si>
-    <t>Counts/month</t>
-  </si>
-  <si>
     <t>originally reported 500, total estimate- 1000 trips per month or so (just a guess)</t>
+  </si>
+  <si>
+    <t>2022 Counts/month</t>
   </si>
 </sst>
 </file>
@@ -664,10 +664,10 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{63581A12-5E1B-4D8C-9ECD-5A28AFD3C4EE}"/>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD8148C-4C44-4F31-83BA-B098B9C2477B}">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="119" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="143" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1146,30 +1146,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>17797</v>
+        <v>17476</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
         <f>(B2+B3+B4)/$B$8</f>
-        <v>0.66005441804611853</v>
+        <v>0.6608676975945017</v>
       </c>
       <c r="E2">
         <f>0.5/D2</f>
-        <v>0.75751329940354195</v>
+        <v>0.75658108547286318</v>
       </c>
       <c r="F2">
         <f>B2/$B$8</f>
-        <v>0.27052457172389682</v>
+        <v>0.26810260186548845</v>
       </c>
       <c r="G2">
         <f>F2*$E$2</f>
-        <v>0.20492596089629922</v>
+        <v>0.20284135753749014</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(G2*$D$9,0)</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <f>IF($I$10-H2&lt;0,,$I$10-H2)</f>
@@ -1177,19 +1177,19 @@
       </c>
       <c r="J2">
         <f>H2/(H2+H4+H6+H7)</f>
-        <v>0.26356589147286824</v>
+        <v>0.26165803108808289</v>
       </c>
       <c r="K2">
         <f>-1*J2*I3</f>
-        <v>-2.8992248062015507</v>
+        <v>-2.616580310880829</v>
       </c>
       <c r="L2" s="2">
         <f>H2+K2</f>
-        <v>99.100775193798455</v>
+        <v>98.383419689119165</v>
       </c>
       <c r="M2" s="3">
         <f>ROUND(L2,0)</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="3"/>
       <c r="Q2" s="2"/>
@@ -1201,26 +1201,26 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>11242</v>
+        <v>11346</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F7" si="0">B3/$B$8</f>
-        <v>0.17088482526943014</v>
+        <v>0.17406111929307805</v>
       </c>
       <c r="G3">
         <f>F3*$E$2</f>
-        <v>0.12944752780784377</v>
+        <v>0.13169135057337852</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="1">ROUND(G3*$D$9,0)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I7" si="2">IF($I$10-H3&lt;0,,$I$10-H3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
         <f>H3+I3</f>
@@ -1240,18 +1240,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>14384</v>
+        <v>14256</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.21864502105279157</v>
+        <v>0.2187039764359352</v>
       </c>
       <c r="G4">
         <f>F4*$E$2</f>
-        <v>0.16562651129585704</v>
+        <v>0.16546729188913134</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
@@ -1263,15 +1263,15 @@
       </c>
       <c r="J4">
         <f>H4/(H2+H4+H6+H7)</f>
-        <v>0.2144702842377261</v>
+        <v>0.21502590673575128</v>
       </c>
       <c r="K4">
         <f>-1*J4*I3</f>
-        <v>-2.3591731266149871</v>
+        <v>-2.1502590673575126</v>
       </c>
       <c r="L4" s="2">
         <f>H4+K4</f>
-        <v>80.640826873385009</v>
+        <v>80.84974093264249</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="3"/>
@@ -1286,26 +1286,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>4278</v>
+        <v>4256</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
         <f>(B5+B6+B7)/$B$8</f>
-        <v>0.33994558195388147</v>
+        <v>0.3391323024054983</v>
       </c>
       <c r="E5">
         <f>0.5/D5</f>
-        <v>1.4708236451439813</v>
+        <v>1.474350854971501</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>6.5028045054494055E-2</v>
+        <v>6.5292096219931275E-2</v>
       </c>
       <c r="G5">
         <f>F5*$E$5</f>
-        <v>9.5644786263637996E-2</v>
+        <v>9.6263457884737183E-2</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
@@ -1332,18 +1332,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>10460</v>
+        <v>10336</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.15899797832398499</v>
+        <v>0.15856651939126165</v>
       </c>
       <c r="G6">
         <f>F6*$E$5</f>
-        <v>0.23385798604900734</v>
+        <v>0.2337826834343617</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
@@ -1355,15 +1355,15 @@
       </c>
       <c r="J6">
         <f>H6/(H7+H6+H2+H4)</f>
-        <v>0.30232558139534882</v>
+        <v>0.30310880829015546</v>
       </c>
       <c r="K6">
         <f>-1*J6*I5</f>
-        <v>-8.4651162790697665</v>
+        <v>-8.4870466321243523</v>
       </c>
       <c r="L6" s="2">
         <f>H6+K6</f>
-        <v>108.53488372093024</v>
+        <v>108.51295336787565</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
@@ -1378,18 +1378,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>7626</v>
+        <v>7514</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.11591955857540244</v>
+        <v>0.11527368679430536</v>
       </c>
       <c r="G7">
         <f>F7*$E$5</f>
-        <v>0.17049722768735467</v>
+        <v>0.16995385868090113</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
@@ -1401,15 +1401,15 @@
       </c>
       <c r="J7">
         <f>H7/(H6+H7+H2+H4)</f>
-        <v>0.21963824289405684</v>
+        <v>0.22020725388601037</v>
       </c>
       <c r="K7">
         <f>-1*J7*I5</f>
-        <v>-6.1498708010335914</v>
+        <v>-6.1658031088082907</v>
       </c>
       <c r="L7" s="2">
         <f>H7+K7</f>
-        <v>78.850129198966414</v>
+        <v>78.834196891191709</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
@@ -1423,7 +1423,7 @@
       <c r="A8" s="1"/>
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>65787</v>
+        <v>65184</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1458,21 +1458,21 @@
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F19" si="4">B2</f>
-        <v>17797</v>
+        <v>17476</v>
       </c>
       <c r="G14">
         <v>1000</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <f>F14/G14</f>
-        <v>17.797000000000001</v>
+        <v>17.475999999999999</v>
       </c>
       <c r="I14" t="str">
         <f>A2</f>
         <v>Central Community Transit</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1481,14 +1481,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>11242</v>
+        <v>11346</v>
       </c>
       <c r="G15">
         <v>957</v>
       </c>
       <c r="H15">
         <f>F15/G15</f>
-        <v>11.74712643678161</v>
+        <v>11.855799373040753</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ref="I15:I19" si="5">A3</f>
@@ -1498,14 +1498,14 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>14384</v>
+        <v>14256</v>
       </c>
       <c r="G16">
         <v>1400</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <f t="shared" ref="H16:H19" si="6">F16/G16</f>
-        <v>10.274285714285714</v>
+        <v>10.182857142857143</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="5"/>
@@ -1518,14 +1518,14 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>4278</v>
+        <v>4256</v>
       </c>
       <c r="G17">
         <v>357</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <f t="shared" si="6"/>
-        <v>11.983193277310924</v>
+        <v>11.921568627450981</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="5"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="L17">
         <f>F17/12</f>
-        <v>356.5</v>
+        <v>354.66666666666669</v>
       </c>
       <c r="M17" t="s">
         <v>27</v>
@@ -1542,14 +1542,14 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>10460</v>
+        <v>10336</v>
       </c>
       <c r="G18">
         <v>3500</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>2.9885714285714284</v>
+        <v>2.9531428571428573</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="5"/>
@@ -1559,14 +1559,14 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>7626</v>
+        <v>7514</v>
       </c>
       <c r="G19">
         <v>5000</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>1.5251999999999999</v>
+        <v>1.5027999999999999</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="5"/>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="7">
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="7">
         <v>0.1</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="5">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="5">
         <v>0.1</v>
       </c>
